--- a/graph.xlsx
+++ b/graph.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will MacIntyre\Documents\Rubicks Cube\PuzzleCube3x3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF237BB-52DC-4F34-9F3F-8D824B52E713}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7365" xr2:uid="{C23C1B96-E41C-4C8D-8E5A-FD3FF3F59CAB}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Right</t>
   </si>
@@ -66,13 +67,31 @@
   </si>
   <si>
     <t>rotate cCW</t>
+  </si>
+  <si>
+    <t>rigth</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>bot</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,16 +99,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,12 +178,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,15 +535,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACD8E0C-619C-4BF8-A9B7-B32F8835A42A}">
-  <dimension ref="C2:P26"/>
+  <dimension ref="C2:AB115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="N90" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="28" width="3.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -436,7 +557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E3">
         <v>1</v>
       </c>
@@ -444,7 +565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -467,7 +588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>4</v>
       </c>
@@ -489,8 +610,11 @@
       <c r="O6">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>3</v>
       </c>
@@ -500,16 +624,45 @@
       <c r="N8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="V8" s="7">
+        <v>0</v>
+      </c>
+      <c r="W8" s="7">
+        <v>1</v>
+      </c>
+      <c r="X8" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>3</v>
       </c>
       <c r="M9">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="V9" s="8">
+        <v>3</v>
+      </c>
+      <c r="W9" s="8">
+        <v>4</v>
+      </c>
+      <c r="X9" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="V10" s="9">
+        <v>6</v>
+      </c>
+      <c r="W10" s="9">
+        <v>7</v>
+      </c>
+      <c r="X10" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>7</v>
       </c>
@@ -517,30 +670,144 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>5</v>
       </c>
       <c r="M12">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+      <c r="S12" s="9">
+        <v>1</v>
+      </c>
+      <c r="T12" s="10">
+        <v>2</v>
+      </c>
+      <c r="V12" s="11">
+        <v>0</v>
+      </c>
+      <c r="W12" s="11">
+        <v>1</v>
+      </c>
+      <c r="X12" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="R13" s="8">
+        <v>3</v>
+      </c>
+      <c r="S13" s="9">
+        <v>4</v>
+      </c>
+      <c r="T13" s="10">
+        <v>5</v>
+      </c>
+      <c r="V13" s="11">
+        <v>3</v>
+      </c>
+      <c r="W13" s="11">
+        <v>4</v>
+      </c>
+      <c r="X13" s="11">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="R14" s="8">
+        <v>6</v>
+      </c>
+      <c r="S14" s="9">
+        <v>7</v>
+      </c>
+      <c r="T14" s="10">
+        <v>8</v>
+      </c>
+      <c r="V14" s="11">
+        <v>6</v>
+      </c>
+      <c r="W14" s="11">
+        <v>7</v>
+      </c>
+      <c r="X14" s="11">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="V16" s="7">
+        <v>0</v>
+      </c>
+      <c r="W16" s="7">
+        <v>1</v>
+      </c>
+      <c r="X16" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="V17" s="10">
+        <v>3</v>
+      </c>
+      <c r="W17" s="10">
+        <v>4</v>
+      </c>
+      <c r="X17" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="V18" s="9">
+        <v>6</v>
+      </c>
+      <c r="W18" s="9">
+        <v>7</v>
+      </c>
+      <c r="X18" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>13</v>
       </c>
@@ -551,7 +818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -561,33 +828,1015 @@
       <c r="G20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="V20" s="12">
+        <v>0</v>
+      </c>
+      <c r="W20" s="12">
+        <v>1</v>
+      </c>
+      <c r="X20" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>4</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="V21" s="12">
+        <v>3</v>
+      </c>
+      <c r="W21" s="12">
+        <v>4</v>
+      </c>
+      <c r="X21" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="V22" s="12">
+        <v>6</v>
+      </c>
+      <c r="W22" s="12">
+        <v>7</v>
+      </c>
+      <c r="X22" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E23">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="R24" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E26">
         <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="V27" s="12">
+        <v>0</v>
+      </c>
+      <c r="W27" s="12">
+        <v>1</v>
+      </c>
+      <c r="X27" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="V28" s="12">
+        <v>3</v>
+      </c>
+      <c r="W28" s="12">
+        <v>4</v>
+      </c>
+      <c r="X28" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="V29" s="12">
+        <v>6</v>
+      </c>
+      <c r="W29" s="12">
+        <v>7</v>
+      </c>
+      <c r="X29" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="R31" s="3">
+        <v>6</v>
+      </c>
+      <c r="S31" s="3">
+        <v>3</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="7">
+        <v>0</v>
+      </c>
+      <c r="W31" s="7">
+        <v>1</v>
+      </c>
+      <c r="X31" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z31" s="14">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="14">
+        <v>5</v>
+      </c>
+      <c r="AB31" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="R32" s="4">
+        <v>7</v>
+      </c>
+      <c r="S32" s="4">
+        <v>4</v>
+      </c>
+      <c r="T32" s="4">
+        <v>1</v>
+      </c>
+      <c r="V32" s="8">
+        <v>3</v>
+      </c>
+      <c r="W32" s="8">
+        <v>4</v>
+      </c>
+      <c r="X32" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="13">
+        <v>4</v>
+      </c>
+      <c r="AB32" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="R33" s="5">
+        <v>8</v>
+      </c>
+      <c r="S33" s="5">
+        <v>5</v>
+      </c>
+      <c r="T33" s="5">
+        <v>2</v>
+      </c>
+      <c r="V33" s="9">
+        <v>6</v>
+      </c>
+      <c r="W33" s="9">
+        <v>7</v>
+      </c>
+      <c r="X33" s="9">
+        <v>8</v>
+      </c>
+      <c r="Z33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="16">
+        <v>3</v>
+      </c>
+      <c r="AB33" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V35" s="11">
+        <v>0</v>
+      </c>
+      <c r="W35" s="11">
+        <v>1</v>
+      </c>
+      <c r="X35" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V36" s="11">
+        <v>3</v>
+      </c>
+      <c r="W36" s="11">
+        <v>4</v>
+      </c>
+      <c r="X36" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V37" s="11">
+        <v>6</v>
+      </c>
+      <c r="W37" s="11">
+        <v>7</v>
+      </c>
+      <c r="X37" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V39" s="7">
+        <v>0</v>
+      </c>
+      <c r="W39" s="7">
+        <v>1</v>
+      </c>
+      <c r="X39" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V40" s="10">
+        <v>3</v>
+      </c>
+      <c r="W40" s="10">
+        <v>4</v>
+      </c>
+      <c r="X40" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V41" s="9">
+        <v>6</v>
+      </c>
+      <c r="W41" s="9">
+        <v>7</v>
+      </c>
+      <c r="X41" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V45" s="11">
+        <v>0</v>
+      </c>
+      <c r="W45" s="11">
+        <v>1</v>
+      </c>
+      <c r="X45" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V46" s="11">
+        <v>3</v>
+      </c>
+      <c r="W46" s="11">
+        <v>4</v>
+      </c>
+      <c r="X46" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V47" s="11">
+        <v>6</v>
+      </c>
+      <c r="W47" s="11">
+        <v>7</v>
+      </c>
+      <c r="X47" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="R49" s="18">
+        <v>2</v>
+      </c>
+      <c r="S49" s="18">
+        <v>5</v>
+      </c>
+      <c r="T49" s="18">
+        <v>8</v>
+      </c>
+      <c r="V49" s="7">
+        <v>0</v>
+      </c>
+      <c r="W49" s="7">
+        <v>1</v>
+      </c>
+      <c r="X49" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z49" s="16">
+        <v>6</v>
+      </c>
+      <c r="AA49" s="16">
+        <v>3</v>
+      </c>
+      <c r="AB49" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="R50" s="4">
+        <v>1</v>
+      </c>
+      <c r="S50" s="4">
+        <v>4</v>
+      </c>
+      <c r="T50" s="4">
+        <v>7</v>
+      </c>
+      <c r="V50" s="10">
+        <v>3</v>
+      </c>
+      <c r="W50" s="10">
+        <v>4</v>
+      </c>
+      <c r="X50" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z50" s="13">
+        <v>7</v>
+      </c>
+      <c r="AA50" s="13">
+        <v>4</v>
+      </c>
+      <c r="AB50" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>3</v>
+      </c>
+      <c r="T51" s="3">
+        <v>6</v>
+      </c>
+      <c r="V51" s="9">
+        <v>6</v>
+      </c>
+      <c r="W51" s="9">
+        <v>7</v>
+      </c>
+      <c r="X51" s="9">
+        <v>8</v>
+      </c>
+      <c r="Z51" s="14">
+        <v>8</v>
+      </c>
+      <c r="AA51" s="14">
+        <v>5</v>
+      </c>
+      <c r="AB51" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V53" s="12">
+        <v>0</v>
+      </c>
+      <c r="W53" s="12">
+        <v>1</v>
+      </c>
+      <c r="X53" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V54" s="12">
+        <v>3</v>
+      </c>
+      <c r="W54" s="12">
+        <v>4</v>
+      </c>
+      <c r="X54" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V55" s="12">
+        <v>6</v>
+      </c>
+      <c r="W55" s="12">
+        <v>7</v>
+      </c>
+      <c r="X55" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V57" s="7">
+        <v>0</v>
+      </c>
+      <c r="W57" s="7">
+        <v>1</v>
+      </c>
+      <c r="X57" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V58" s="8">
+        <v>3</v>
+      </c>
+      <c r="W58" s="8">
+        <v>4</v>
+      </c>
+      <c r="X58" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V59" s="9">
+        <v>6</v>
+      </c>
+      <c r="W59" s="9">
+        <v>7</v>
+      </c>
+      <c r="X59" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V63" s="4">
+        <v>6</v>
+      </c>
+      <c r="W63" s="3">
+        <v>3</v>
+      </c>
+      <c r="X63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V64" s="4">
+        <v>7</v>
+      </c>
+      <c r="W64" s="3">
+        <v>4</v>
+      </c>
+      <c r="X64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V65" s="4">
+        <v>8</v>
+      </c>
+      <c r="W65" s="3">
+        <v>5</v>
+      </c>
+      <c r="X65" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="R67" s="11">
+        <v>0</v>
+      </c>
+      <c r="S67" s="11">
+        <v>1</v>
+      </c>
+      <c r="T67" s="11">
+        <v>2</v>
+      </c>
+      <c r="V67" s="8">
+        <v>0</v>
+      </c>
+      <c r="W67" s="7">
+        <v>1</v>
+      </c>
+      <c r="X67" s="10">
+        <v>2</v>
+      </c>
+      <c r="Z67" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA67" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB67" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="R68" s="11">
+        <v>3</v>
+      </c>
+      <c r="S68" s="11">
+        <v>4</v>
+      </c>
+      <c r="T68" s="11">
+        <v>5</v>
+      </c>
+      <c r="V68" s="8">
+        <v>3</v>
+      </c>
+      <c r="W68" s="7">
+        <v>4</v>
+      </c>
+      <c r="X68" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB68" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="R69" s="11">
+        <v>6</v>
+      </c>
+      <c r="S69" s="11">
+        <v>7</v>
+      </c>
+      <c r="T69" s="11">
+        <v>8</v>
+      </c>
+      <c r="V69" s="8">
+        <v>6</v>
+      </c>
+      <c r="W69" s="7">
+        <v>7</v>
+      </c>
+      <c r="X69" s="10">
+        <v>8</v>
+      </c>
+      <c r="Z69" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA69" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V71" s="13">
+        <v>2</v>
+      </c>
+      <c r="W71" s="14">
+        <v>5</v>
+      </c>
+      <c r="X71" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V72" s="13">
+        <v>1</v>
+      </c>
+      <c r="W72" s="14">
+        <v>4</v>
+      </c>
+      <c r="X72" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V73" s="2">
+        <v>0</v>
+      </c>
+      <c r="W73" s="5">
+        <v>3</v>
+      </c>
+      <c r="X73" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V75" s="5">
+        <v>8</v>
+      </c>
+      <c r="W75" s="4">
+        <v>7</v>
+      </c>
+      <c r="X75" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V76" s="5">
+        <v>5</v>
+      </c>
+      <c r="W76" s="4">
+        <v>4</v>
+      </c>
+      <c r="X76" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V77" s="5">
+        <v>2</v>
+      </c>
+      <c r="W77" s="4">
+        <v>1</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="S80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V83" s="19">
+        <v>2</v>
+      </c>
+      <c r="W83" s="3">
+        <v>5</v>
+      </c>
+      <c r="X83" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V84" s="19">
+        <v>1</v>
+      </c>
+      <c r="W84" s="3">
+        <v>4</v>
+      </c>
+      <c r="X84" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V85" s="19">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>3</v>
+      </c>
+      <c r="X85" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="R87" s="1">
+        <v>8</v>
+      </c>
+      <c r="S87" s="1">
+        <v>7</v>
+      </c>
+      <c r="T87" s="1">
+        <v>6</v>
+      </c>
+      <c r="V87" s="8">
+        <v>0</v>
+      </c>
+      <c r="W87" s="9">
+        <v>1</v>
+      </c>
+      <c r="X87" s="10">
+        <v>2</v>
+      </c>
+      <c r="Z87" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB87" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="R88" s="1">
+        <v>5</v>
+      </c>
+      <c r="S88" s="1">
+        <v>4</v>
+      </c>
+      <c r="T88" s="1">
+        <v>3</v>
+      </c>
+      <c r="V88" s="8">
+        <v>3</v>
+      </c>
+      <c r="W88" s="9">
+        <v>4</v>
+      </c>
+      <c r="X88" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z88" s="11">
+        <v>3</v>
+      </c>
+      <c r="AA88" s="11">
+        <v>4</v>
+      </c>
+      <c r="AB88" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="R89" s="1">
+        <v>2</v>
+      </c>
+      <c r="S89" s="1">
+        <v>1</v>
+      </c>
+      <c r="T89" s="1">
+        <v>0</v>
+      </c>
+      <c r="V89" s="8">
+        <v>6</v>
+      </c>
+      <c r="W89" s="9">
+        <v>7</v>
+      </c>
+      <c r="X89" s="10">
+        <v>8</v>
+      </c>
+      <c r="Z89" s="11">
+        <v>6</v>
+      </c>
+      <c r="AA89" s="11">
+        <v>7</v>
+      </c>
+      <c r="AB89" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V91" s="15">
+        <v>6</v>
+      </c>
+      <c r="W91" s="14">
+        <v>3</v>
+      </c>
+      <c r="X91" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V92" s="15">
+        <v>7</v>
+      </c>
+      <c r="W92" s="14">
+        <v>4</v>
+      </c>
+      <c r="X92" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V93" s="15">
+        <v>8</v>
+      </c>
+      <c r="W93" s="14">
+        <v>5</v>
+      </c>
+      <c r="X93" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V95" s="14">
+        <v>8</v>
+      </c>
+      <c r="W95" s="13">
+        <v>7</v>
+      </c>
+      <c r="X95" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V96" s="14">
+        <v>5</v>
+      </c>
+      <c r="W96" s="13">
+        <v>4</v>
+      </c>
+      <c r="X96" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V97" s="14">
+        <v>2</v>
+      </c>
+      <c r="W97" s="13">
+        <v>1</v>
+      </c>
+      <c r="X97" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="S99" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V101" s="7">
+        <v>0</v>
+      </c>
+      <c r="W101" s="7">
+        <v>1</v>
+      </c>
+      <c r="X101" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V102" s="10">
+        <v>3</v>
+      </c>
+      <c r="W102" s="10">
+        <v>4</v>
+      </c>
+      <c r="X102" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V103" s="9">
+        <v>6</v>
+      </c>
+      <c r="W103" s="9">
+        <v>7</v>
+      </c>
+      <c r="X103" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="R105" s="5">
+        <v>8</v>
+      </c>
+      <c r="S105" s="4">
+        <v>7</v>
+      </c>
+      <c r="T105" s="6">
+        <v>6</v>
+      </c>
+      <c r="V105" s="12">
+        <v>0</v>
+      </c>
+      <c r="W105" s="12">
+        <v>1</v>
+      </c>
+      <c r="X105" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z105" s="14">
+        <v>8</v>
+      </c>
+      <c r="AA105" s="13">
+        <v>7</v>
+      </c>
+      <c r="AB105" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="R106" s="5">
+        <v>5</v>
+      </c>
+      <c r="S106" s="4">
+        <v>4</v>
+      </c>
+      <c r="T106" s="6">
+        <v>3</v>
+      </c>
+      <c r="V106" s="12">
+        <v>3</v>
+      </c>
+      <c r="W106" s="12">
+        <v>4</v>
+      </c>
+      <c r="X106" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z106" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA106" s="13">
+        <v>4</v>
+      </c>
+      <c r="AB106" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="R107" s="5">
+        <v>2</v>
+      </c>
+      <c r="S107" s="4">
+        <v>1</v>
+      </c>
+      <c r="T107" s="6">
+        <v>0</v>
+      </c>
+      <c r="V107" s="12">
+        <v>6</v>
+      </c>
+      <c r="W107" s="12">
+        <v>7</v>
+      </c>
+      <c r="X107" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z107" s="14">
+        <v>2</v>
+      </c>
+      <c r="AA107" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB107" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V109" s="7">
+        <v>0</v>
+      </c>
+      <c r="W109" s="7">
+        <v>1</v>
+      </c>
+      <c r="X109" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V110" s="8">
+        <v>3</v>
+      </c>
+      <c r="W110" s="8">
+        <v>4</v>
+      </c>
+      <c r="X110" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="V111" s="9">
+        <v>6</v>
+      </c>
+      <c r="W111" s="9">
+        <v>7</v>
+      </c>
+      <c r="X111" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V113" s="11">
+        <v>0</v>
+      </c>
+      <c r="W113" s="11">
+        <v>1</v>
+      </c>
+      <c r="X113" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V114" s="11">
+        <v>3</v>
+      </c>
+      <c r="W114" s="11">
+        <v>4</v>
+      </c>
+      <c r="X114" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V115" s="11">
+        <v>6</v>
+      </c>
+      <c r="W115" s="11">
+        <v>7</v>
+      </c>
+      <c r="X115" s="11">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
